--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -1,42 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\recys_code\NARRE_with_timestamp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF41B956-5D9B-438F-8313-DD2B68492E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13332" xr2:uid="{FE7245B3-11CD-4143-AB09-0F409C5373F6}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Digital Music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time+cnn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toys physgpu</t>
   </si>
   <si>
     <t>P_REVIEW = 0.85
@@ -46,11 +29,6 @@
     r_max_len = 202
     u_max_r = 13
     i_max_r = 24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P_REVIEW = 0.85
@@ -60,23 +38,94 @@
     r_max_len = 113
     u_max_r = 9
     i_max_r = 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc正在跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physgpu正在跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmsgpu正在跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>time+cnn</t>
+  </si>
+  <si>
+    <t>老刘pc 0.9354</t>
+  </si>
+  <si>
+    <t>time+cnn+ rs_mix多一层dropout</t>
+  </si>
+  <si>
+    <t>0.9091 100epoch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">老刘pc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.9291 150 epoch</t>
+    </r>
+  </si>
+  <si>
+    <t>physc 0.9167 100epoch</t>
+  </si>
+  <si>
+    <t>phys 0.9109</t>
+  </si>
+  <si>
+    <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
+  </si>
+  <si>
+    <t>nmsgpu</t>
+  </si>
+  <si>
+    <t>time年月周+cnn+ rs_mix多一层dropout</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>time(年月周)+time+cnn</t>
+  </si>
+  <si>
+    <t>time(年月周)+cnn</t>
+  </si>
+  <si>
+    <t>time(年月周)+cnn+预测近期数据</t>
+  </si>
+  <si>
+    <t>remove stopwords+time+cnn(r_max_len=73)</t>
+  </si>
+  <si>
+    <t>remove stopwords+time+cnn(r_max_len=)</t>
+  </si>
+  <si>
+    <t>Baby pc</t>
+  </si>
+  <si>
+    <t>Office nmsgpu</t>
+  </si>
+  <si>
+    <t>Health pc</t>
+  </si>
+  <si>
+    <t>P_REVIEW = 0.85
+MAX_DF = 0.7
+MAX_VOCAB = 50000
+timestamp_size=158+1
+    r_max_len = 94
+    u_max_r = 9
+    i_max_r = 29</t>
   </si>
   <si>
     <t xml:space="preserve">P_REVIEW = 0.85
@@ -86,43 +135,427 @@
     r_max_len = 
     u_max_r = 
     i_max_r = </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8857（在35个epoch后就停止下降了）</t>
+  </si>
+  <si>
+    <t>pc 1.1048</t>
+  </si>
+  <si>
+    <t>pc 1.1080</t>
+  </si>
+  <si>
+    <t>remove stopwords(r_max_len=73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,34 +563,362 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,7 +967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,26 +1000,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -291,23 +1035,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,32 +1176,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE8AC38-573A-4879-8073-C557E7F82400}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="12.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="12" width="8.88888888888889" style="1"/>
+    <col min="13" max="13" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,127 +1207,340 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="124.2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.9874</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9877</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.988</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.988</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.9015</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.9017</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.9144</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.9152</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.913</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="41.4" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27.6" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="41.4" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="69" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.1038</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.1039</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.1039</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.8867</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.068</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.886</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="M15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.886</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27.6" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="41.4" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.1081</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="I15:J16"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Digital Music</t>
   </si>
@@ -86,9 +86,6 @@
     <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
-    <t>nmsgpu</t>
-  </si>
-  <si>
     <t>time年月周+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>time(年月周)+cnn P_review=0.9</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -681,46 +674,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,101 +728,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,22 +835,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1253,7 +1237,7 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.9017</v>
       </c>
     </row>
@@ -1298,74 +1282,78 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>0.9882</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.988</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27.6" spans="1:9">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.9878</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="41.4" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1374,21 +1362,21 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1413,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="4">
         <v>0.8867</v>
@@ -1421,20 +1409,22 @@
       <c r="M13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="11">
-        <v>1.068</v>
-      </c>
-      <c r="O13" s="11"/>
+      <c r="N13" s="8">
+        <v>1.0676</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.0673</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
@@ -1450,81 +1440,97 @@
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="5">
+        <v>1.1058</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="5">
+        <v>0.8858</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="M15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="11"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.1051</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
         <v>0.886</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="5">
+        <v>0.8862</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.8861</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1.068</v>
+      </c>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="27.6" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="41.4" spans="1:13">
       <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.1081</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8">
-        <v>1.1081</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="41.4" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" ht="27.6" spans="1:7">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:E2"/>
@@ -1535,10 +1541,7 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="I15:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Digital Music</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>original</t>
+  </si>
+  <si>
+    <t>nms</t>
   </si>
   <si>
     <t>time+cnn</t>
@@ -89,13 +92,16 @@
     <t>time年月周+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>time(年月周)+time+cnn</t>
   </si>
   <si>
     <t>time(年月周)+cnn</t>
+  </si>
+  <si>
+    <t>time+预测近期数据</t>
+  </si>
+  <si>
+    <t>time+cnn+预测近期数据</t>
   </si>
   <si>
     <t>time(年月周)+cnn+预测近期数据</t>
@@ -151,18 +157,24 @@
   <si>
     <t>time(年月周)+cnn P_review=0.9</t>
   </si>
+  <si>
+    <t>刘牧云pc</t>
+  </si>
+  <si>
+    <t>刘牧云</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,94 +190,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +247,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -295,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -312,6 +303,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -326,16 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +601,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,24 +632,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +662,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,152 +673,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,23 +828,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1231,19 +1242,22 @@
       <c r="E3" s="2">
         <v>0.988</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>0.9017</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>0.9144</v>
@@ -1254,33 +1268,35 @@
       <c r="D4" s="2">
         <v>0.913</v>
       </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="41.4" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>0.9882</v>
@@ -1289,12 +1305,14 @@
         <v>0.988</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="H6" s="6">
+        <v>0.9356</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.9359</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27.6" spans="1:9">
       <c r="A7" s="2" t="s">
@@ -1307,69 +1325,58 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="H7" s="6">
+        <v>0.9359</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.9359</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3">
+        <v>0.9424</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="41.4" spans="1:7">
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="3">
+        <v>0.878</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:17">
-      <c r="A11" s="2" t="s">
+    <row r="10" s="1" customFormat="1" ht="41.4" spans="1:7">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="2" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:17">
+      <c r="A12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1383,128 +1390,143 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="69" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="69" spans="1:15">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>1.1038</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>1.1039</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>1.1039</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="G13" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.8867</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="11">
         <v>1.0676</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="11">
         <v>1.0673</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
+    <row r="15" s="1" customFormat="1" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.886</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="41.4" spans="1:15">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
         <v>1.1058</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5">
-        <v>0.8858</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="M15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1.1051</v>
       </c>
       <c r="C16" s="5"/>
       <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="5">
+        <v>0.8858</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="M16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.0684</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1.0681</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:15">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7">
+      <c r="B17" s="10">
+        <v>1.1051</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9">
         <v>0.886</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>0.8862</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>0.8861</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N17" s="11">
         <v>1.068</v>
       </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="27.6" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="41.4" spans="1:13">
+      <c r="O17" s="11">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27.6" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1.1081</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>19</v>
@@ -1513,35 +1535,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:2">
+    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="27.6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.1081</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="41.4" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="27.6" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="M11:Q11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="M13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Digital Music</t>
   </si>
   <si>
-    <t>Toys physgpu</t>
+    <t xml:space="preserve">Toys </t>
   </si>
   <si>
     <t>P_REVIEW = 0.85
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>original</t>
-  </si>
-  <si>
-    <t>nms</t>
   </si>
   <si>
     <t>time+cnn</t>
@@ -86,28 +83,31 @@
     <t>phys 0.9109</t>
   </si>
   <si>
+    <t>original（p_review=0.9）</t>
+  </si>
+  <si>
     <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
+    <t>time+cnn（p_review=0.9）</t>
+  </si>
+  <si>
+    <t>time(年月周)+time+cnn</t>
+  </si>
+  <si>
     <t>time年月周+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
-    <t>time(年月周)+time+cnn</t>
-  </si>
-  <si>
     <t>time(年月周)+cnn</t>
   </si>
   <si>
-    <t>time+预测近期数据</t>
-  </si>
-  <si>
     <t>time+cnn+预测近期数据</t>
   </si>
   <si>
+    <t>remove stopwords+time+cnn(r_max_len=73)</t>
+  </si>
+  <si>
     <t>time(年月周)+cnn+预测近期数据</t>
-  </si>
-  <si>
-    <t>remove stopwords+time+cnn(r_max_len=73)</t>
   </si>
   <si>
     <t>remove stopwords+time+cnn(r_max_len=)</t>
@@ -149,6 +149,9 @@
     <t>pc 1.1080</t>
   </si>
   <si>
+    <t>pc</t>
+  </si>
+  <si>
     <t>remove stopwords(r_max_len=73)</t>
   </si>
   <si>
@@ -158,10 +161,10 @@
     <t>time(年月周)+cnn P_review=0.9</t>
   </si>
   <si>
-    <t>刘牧云pc</t>
-  </si>
-  <si>
-    <t>刘牧云</t>
+    <t>time（年月周）+cnn+预测近期数据</t>
+  </si>
+  <si>
+    <t>physgpu</t>
   </si>
 </sst>
 </file>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -197,12 +200,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -211,19 +229,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -233,7 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,49 +274,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,32 +298,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -605,7 +617,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,26 +633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,11 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,23 +831,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1177,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1242,8 +1236,8 @@
       <c r="E3" s="2">
         <v>0.988</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
+      <c r="F3" s="1">
+        <v>0.9882</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -1251,13 +1245,13 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>0.9017</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>0.9144</v>
@@ -1268,33 +1262,43 @@
       <c r="D4" s="2">
         <v>0.913</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="1">
+        <v>0.9099</v>
+      </c>
       <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1">
+        <v>0.9099</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="41.4" spans="1:9">
+      <c r="H5" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="41.4" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1307,14 +1311,11 @@
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6">
-        <v>0.9356</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.9359</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27.6" spans="1:9">
+      <c r="H6" s="4">
+        <v>0.9752</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="41.4" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1325,47 +1326,49 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
+        <v>0.9356</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.9359</v>
       </c>
-      <c r="I7" s="6">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.9359</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.9424</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5">
+        <v>0.9359</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="6">
+        <v>0.8779</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="41.4" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="41.4" spans="2:7">
+      <c r="B11" s="7"/>
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:2">
-      <c r="B11" s="9"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:17">
       <c r="A12" s="2" t="s">
@@ -1417,95 +1420,91 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1.1038</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.1039</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1.1039</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.8867</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>1.0676</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <v>1.0673</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:15">
+    <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.886</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="41.4" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>1.1058</v>
       </c>
       <c r="C16" s="5"/>
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="5">
         <v>0.8858</v>
       </c>
       <c r="J16" s="5"/>
       <c r="M16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="11">
-        <v>1.0684</v>
-      </c>
-      <c r="O16" s="11">
-        <v>1.0681</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.1175</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
         <v>1.1051</v>
       </c>
       <c r="C17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>0.886</v>
       </c>
       <c r="I17" s="5">
@@ -1515,60 +1514,108 @@
         <v>0.8861</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27.6" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="11">
-        <v>1.068</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1.068</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="27.6" spans="1:13">
-      <c r="A18" s="2" t="s">
+      <c r="N18" s="9">
+        <v>1.0684</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1.0681</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>1.1081</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1.068</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="41.4" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.8861</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="41.4" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.1052</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.9047</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="41.4" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="27.6" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1.0926</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.9057</v>
+      </c>
+    </row>
+    <row r="24" ht="41.4" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Digital Music</t>
   </si>
@@ -92,10 +92,13 @@
     <t>time+cnn（p_review=0.9）</t>
   </si>
   <si>
+    <t>original（p_review=0.8）</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.8）</t>
+  </si>
+  <si>
     <t>time(年月周)+time+cnn</t>
-  </si>
-  <si>
-    <t>time年月周+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
     <t>time(年月周)+cnn</t>
@@ -152,19 +155,13 @@
     <t>pc</t>
   </si>
   <si>
-    <t>remove stopwords(r_max_len=73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>time年月周+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
     <t>time(年月周)+cnn P_review=0.9</t>
   </si>
   <si>
-    <t>time（年月周）+cnn+预测近期数据</t>
-  </si>
-  <si>
-    <t>physgpu</t>
+    <t>nms</t>
   </si>
 </sst>
 </file>
@@ -821,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,10 +831,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1171,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1245,7 +1245,7 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0.9017</v>
       </c>
     </row>
@@ -1315,307 +1315,309 @@
         <v>0.9752</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="41.4" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.9878</v>
-      </c>
+    <row r="7" s="1" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5">
-        <v>0.9356</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27.6" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.9878</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.9359</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="I10" s="5">
         <v>0.9359</v>
       </c>
-      <c r="I8" s="5">
-        <v>0.9359</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27.6" spans="1:7">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.8779</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="41.4" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="41.4" spans="2:7">
+      <c r="B13" s="8"/>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="69" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.1038</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.1039</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.1039</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.8867</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1.0676</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1.0673</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.886</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.1058</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5">
+        <v>0.8858</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1.1175</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="27.6" spans="1:15">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.8779</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="41.4" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="41.4" spans="2:7">
-      <c r="B11" s="7"/>
-      <c r="G11" s="2" t="s">
+      <c r="B19" s="9">
+        <v>1.1051</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.886</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.8862</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.8861</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="27.6" spans="1:15">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="69" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.1038</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.1039</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.1039</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.8867</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1.0676</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1.0673</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.886</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="41.4" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1.1058</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5">
-        <v>0.8858</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="M16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1.1175</v>
-      </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1.1051</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.886</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.8862</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.8861</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="10">
         <v>1.0684</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O20" s="10">
         <v>1.0681</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="41.4" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1.1081</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9">
-        <v>1.068</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1.068</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="41.4" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.8861</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="41.4" spans="1:13">
+    <row r="21" s="1" customFormat="1" ht="41.4" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>1.1052</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1.068</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.0926</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.8861</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="41.4" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H23" s="1">
         <v>0.9047</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="27.6" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1.0926</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="M23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="27.6" spans="7:8">
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7">
         <v>0.9057</v>
-      </c>
-    </row>
-    <row r="24" ht="41.4" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1624,12 +1626,12 @@
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Digital Music</t>
   </si>
@@ -107,13 +107,7 @@
     <t>time+cnn+预测近期数据</t>
   </si>
   <si>
-    <t>remove stopwords+time+cnn(r_max_len=73)</t>
-  </si>
-  <si>
     <t>time(年月周)+cnn+预测近期数据</t>
-  </si>
-  <si>
-    <t>remove stopwords+time+cnn(r_max_len=)</t>
   </si>
   <si>
     <t>Baby pc</t>
@@ -162,6 +156,9 @@
   </si>
   <si>
     <t>nms</t>
+  </si>
+  <si>
+    <t>remove stopwords+time+cnn(r_max_len=)</t>
   </si>
 </sst>
 </file>
@@ -837,16 +834,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1245,7 +1242,7 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.9017</v>
       </c>
     </row>
@@ -1322,7 +1319,7 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A8" s="2"/>
@@ -1331,7 +1328,7 @@
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27.6" spans="1:9">
       <c r="A9" s="2" t="s">
@@ -1347,7 +1344,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1362,43 +1359,39 @@
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.8779</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="41.4" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="12" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="41.4" spans="2:7">
-      <c r="B13" s="8"/>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:7">
+      <c r="B13" s="7"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1407,21 +1400,21 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1446,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" s="3">
         <v>0.8867</v>
@@ -1466,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
@@ -1485,14 +1478,14 @@
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1.1058</v>
       </c>
       <c r="C18" s="5"/>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="5">
         <v>0.8858</v>
       </c>
@@ -1500,23 +1493,23 @@
       <c r="M18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="4">
         <v>1.1175</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1.1051</v>
       </c>
       <c r="C19" s="5"/>
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.886</v>
       </c>
       <c r="I19" s="5">
@@ -1528,21 +1521,21 @@
       <c r="M19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20" s="10">
         <v>1.0684</v>
@@ -1551,15 +1544,18 @@
         <v>1.0681</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="41.4" spans="1:15">
+    <row r="21" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
         <v>1.1052</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.8861</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
@@ -1575,48 +1571,41 @@
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>1.0926</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1">
-        <v>0.8861</v>
+        <v>0.9047</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="41.4" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="M23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.9047</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="27.6" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="27.6" spans="7:8">
-      <c r="G25" s="2" t="s">
+      <c r="B24" s="9"/>
+      <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H24" s="6">
         <v>0.9057</v>
       </c>
     </row>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Digital Music</t>
   </si>
@@ -83,22 +83,43 @@
     <t>phys 0.9109</t>
   </si>
   <si>
-    <t>original（p_review=0.9）</t>
+    <t>original（p_review=0.9 MAX_DF=0.7）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.75, MAX_DF=0.5）</t>
+  </si>
+  <si>
+    <t>pc</t>
   </si>
   <si>
     <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
   </si>
   <si>
-    <t>time+cnn（p_review=0.9）</t>
-  </si>
-  <si>
-    <t>original（p_review=0.8）</t>
-  </si>
-  <si>
-    <t>time+cnn（p_review=0.8）</t>
+    <t>time+cnn（p_review=0.9 MAX_DF=0.7）</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.75, MAX_DF=0.5）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.75 MAX_DF=0.7）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.85, MAX_DF=0.7 MAXVOCAB=60000）</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.75 MAX_DF=0.7)</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.85, MAX_DF=0.7 MAXVOCAB=60000）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.75, MAX_DF=0.6）</t>
   </si>
   <si>
     <t>time(年月周)+time+cnn</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.75, MAX_DF=0.6）</t>
   </si>
   <si>
     <t>time(年月周)+cnn</t>
@@ -140,13 +161,10 @@
     <t>0.8857（在35个epoch后就停止下降了）</t>
   </si>
   <si>
-    <t>pc 1.1048</t>
-  </si>
-  <si>
-    <t>pc 1.1080</t>
-  </si>
-  <si>
-    <t>pc</t>
+    <t>original（p_review=0.9）</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.9）</t>
   </si>
   <si>
     <t>time年月周+cnn+ rs_mix多一层dropout</t>
@@ -155,10 +173,43 @@
     <t>time(年月周)+cnn P_review=0.9</t>
   </si>
   <si>
-    <t>nms</t>
+    <t>original（p_review=0.9 MAX_DF = 0.7）</t>
+  </si>
+  <si>
+    <t>time(年月周)+cnn P_review=0.9 MAX_DF = 0.7</t>
+  </si>
+  <si>
+    <t>original（p_review=0.8）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.85 MAX_DF=0.8）</t>
   </si>
   <si>
     <t>remove stopwords+time+cnn(r_max_len=)</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.8）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.85 MAX_DF=0.8）</t>
+  </si>
+  <si>
+    <t>phys</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>original（p_review=0.7 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.7 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.9 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.9 MAX_DF=0.6）</t>
   </si>
 </sst>
 </file>
@@ -194,6 +245,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -334,13 +392,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -673,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,34 +736,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,98 +772,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,12 +886,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1168,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1180,7 +1240,9 @@
     <col min="2" max="2" width="9.22222222222222" style="1" customWidth="1"/>
     <col min="3" max="6" width="8.88888888888889" style="1"/>
     <col min="7" max="7" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="12" width="8.88888888888889" style="1"/>
+    <col min="8" max="9" width="8.88888888888889" style="1"/>
+    <col min="10" max="10" width="15.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88888888888889" style="1"/>
     <col min="13" max="13" width="23.7777777777778" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
@@ -1242,7 +1304,7 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0.9017</v>
       </c>
     </row>
@@ -1269,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,10 +1356,17 @@
       <c r="H5" s="4">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="41.4" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>0.9882</v>
@@ -1306,308 +1375,382 @@
         <v>0.988</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4">
         <v>0.9752</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27.6" spans="1:8">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="69" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27.6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.9081</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="69" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27.6" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.9082</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.9013</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="41.4" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.9878</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.9023</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5">
         <v>0.9359</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="5">
         <v>0.9359</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27.6" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="12" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.8779</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27.6" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:7">
-      <c r="B13" s="7"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:17">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27.6" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:7">
+      <c r="B14" s="8"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="69" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="69" spans="1:15">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>1.1038</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>1.1039</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1.1039</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.8867</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1.0676</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.0673</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.1048</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.108</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.886</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="27.6" spans="1:13">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.8867</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="10">
-        <v>1.0676</v>
-      </c>
-      <c r="O16" s="10">
-        <v>1.0673</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.886</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="41.4" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="B19" s="9">
+        <v>1.0926</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.9057</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10">
         <v>1.1058</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5">
+      <c r="C20" s="5"/>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
         <v>0.8858</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="M18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="J20" s="5"/>
+      <c r="M20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="4">
         <v>1.1175</v>
       </c>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1.1051</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.886</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.8862</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.8861</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="10">
-        <v>1.0684</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1.0681</v>
-      </c>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="6">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.1051</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.886</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.8862</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.8861</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1.1017</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1.0684</v>
+      </c>
+      <c r="O22" s="13">
+        <v>1.0681</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="41.4" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7">
         <v>1.1052</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.8861</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="10">
+      <c r="M23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="13">
         <v>1.068</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O23" s="13">
         <v>1.068</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.0926</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="1">
+    <row r="24" s="1" customFormat="1" ht="41.4" spans="7:13">
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.9047</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" ht="41.4" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="M23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="27.6" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.9057</v>
-      </c>
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="41.4" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.1048</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.8862</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.1054</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="41.4" spans="7:8">
+      <c r="G28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" ht="41.4" spans="7:8">
+      <c r="G29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" ht="41.4" spans="7:8">
+      <c r="G30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1615,12 +1758,12 @@
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="M14:Q14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Digital Music</t>
   </si>
@@ -89,43 +89,49 @@
     <t>original（p_review=0.75, MAX_DF=0.5）</t>
   </si>
   <si>
+    <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.9 MAX_DF=0.7）</t>
+  </si>
+  <si>
+    <t>time+cnn（p_review=0.75, MAX_DF=0.5）</t>
+  </si>
+  <si>
+    <t>time(年月周)+time+cnn</t>
+  </si>
+  <si>
+    <t>original（p_review=0.75 MAX_DF=0.7）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.75, MAX_DF=0.5 MAXVOCAB=60000）</t>
+  </si>
+  <si>
     <t>pc</t>
   </si>
   <si>
-    <t>time（年月周）+cnn+ rs_mix多一层dropout</t>
-  </si>
-  <si>
-    <t>time+cnn（p_review=0.9 MAX_DF=0.7）</t>
-  </si>
-  <si>
-    <t>time+cnn（p_review=0.75, MAX_DF=0.5）</t>
-  </si>
-  <si>
-    <t>original（p_review=0.75 MAX_DF=0.7）</t>
-  </si>
-  <si>
-    <t>original（p_review=0.85, MAX_DF=0.7 MAXVOCAB=60000）</t>
-  </si>
-  <si>
     <t>time+cnn（p_review=0.75 MAX_DF=0.7)</t>
   </si>
   <si>
-    <t>time+cnn（p_review=0.85, MAX_DF=0.7 MAXVOCAB=60000）</t>
+    <t>time+cnn（p_review=0.75, MAX_DF=0.5 MAXVOCAB=60000）</t>
+  </si>
+  <si>
+    <t>time+cnn+预测近期数据</t>
   </si>
   <si>
     <t>original（p_review=0.75, MAX_DF=0.6）</t>
   </si>
   <si>
-    <t>time(年月周)+time+cnn</t>
+    <t>original（p_review=0.75, MAX_DF=0.5 MAXVOCAB=70000）</t>
   </si>
   <si>
     <t>time+cnn（p_review=0.75, MAX_DF=0.6）</t>
   </si>
   <si>
+    <t>time+cnn（p_review=0.75, MAX_DF=0.5 MAXVOCAB=70000）</t>
+  </si>
+  <si>
     <t>time(年月周)+cnn</t>
-  </si>
-  <si>
-    <t>time+cnn+预测近期数据</t>
   </si>
   <si>
     <t>time(年月周)+cnn+预测近期数据</t>
@@ -176,10 +182,13 @@
     <t>original（p_review=0.9 MAX_DF = 0.7）</t>
   </si>
   <si>
+    <t>original（p_review=0.8）</t>
+  </si>
+  <si>
     <t>time(年月周)+cnn P_review=0.9 MAX_DF = 0.7</t>
   </si>
   <si>
-    <t>original（p_review=0.8）</t>
+    <t>time+cnn（p_review=0.8）</t>
   </si>
   <si>
     <t>original（p_review=0.85 MAX_DF=0.8）</t>
@@ -188,22 +197,37 @@
     <t>remove stopwords+time+cnn(r_max_len=)</t>
   </si>
   <si>
-    <t>time+cnn（p_review=0.8）</t>
+    <t>original（p_review=0.85 MAX_DF=0.5 MAX_VOCAB=50000）</t>
+  </si>
+  <si>
+    <t>nms</t>
   </si>
   <si>
     <t>time+cnn （p_review=0.85 MAX_DF=0.8）</t>
   </si>
   <si>
+    <t>time+cnn（p_review=0.85 MAX_DF=0.5 MAX_VOCAB=50000）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.7 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.85 MAX_DF=0.7 MAX_VOCAB=60000）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.7 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>time+cnnoriginal（p_review=0.85 MAX_DF=0.7 MAX_VOCAB=60000）</t>
+  </si>
+  <si>
+    <t>original（p_review=0.7 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.7 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
+  </si>
+  <si>
     <t>phys</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>original（p_review=0.7 MAX_DF=0.6）</t>
-  </si>
-  <si>
-    <t>time+cnn （p_review=0.7 MAX_DF=0.6）</t>
   </si>
   <si>
     <t>original（p_review=0.9 MAX_DF=0.6）</t>
@@ -866,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,10 +910,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,6 +925,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1228,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1360,13 +1387,13 @@
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>14</v>
+      <c r="K5" s="9">
+        <v>0.9382</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="41.4" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>0.9882</v>
@@ -1375,20 +1402,26 @@
         <v>0.988</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <v>0.9752</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="69" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="69" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>0.9878</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -1399,55 +1432,61 @@
       <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4">
         <v>0.9082</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="69" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.8779</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4">
         <v>0.9013</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="41.4" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.9878</v>
-      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="69" spans="3:11">
       <c r="C10" s="5"/>
       <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>0.9023</v>
       </c>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="7:9">
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5">
         <v>0.9359</v>
@@ -1456,20 +1495,14 @@
         <v>0.9359</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="27.6" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.8779</v>
-      </c>
+    <row r="12" s="1" customFormat="1" spans="7:7">
       <c r="G12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
@@ -1478,21 +1511,21 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1501,21 +1534,21 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="112.2" customHeight="1" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1540,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3">
         <v>0.8867</v>
@@ -1548,10 +1581,10 @@
       <c r="M17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="14">
         <v>1.0676</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="14">
         <v>1.0673</v>
       </c>
     </row>
@@ -1577,37 +1610,33 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="27.6" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="9">
         <v>1.0926</v>
       </c>
       <c r="C19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.9057</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="41.4" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="10">
         <v>1.1058</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.8858</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
       <c r="J20" s="5"/>
       <c r="M20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" s="4">
         <v>1.1175</v>
@@ -1616,14 +1645,14 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="11">
         <v>1.1051</v>
       </c>
       <c r="C21" s="5"/>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3">
         <v>0.886</v>
@@ -1635,122 +1664,151 @@
         <v>0.8861</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="27.6" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9">
         <v>1.1017</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="13">
+        <v>38</v>
+      </c>
+      <c r="N22" s="14">
         <v>1.0684</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="14">
         <v>1.0681</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="41.4" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6">
         <v>1.1052</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
         <v>0.8861</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="13">
+        <v>28</v>
+      </c>
+      <c r="N23" s="14">
         <v>1.068</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="14">
         <v>1.068</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="41.4" spans="7:13">
+    <row r="24" s="1" customFormat="1" ht="41.4" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.1048</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1">
         <v>0.9047</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="41.4" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1.1048</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.1054</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="7">
+        <v>44</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.8862</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="41.4" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="69" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1.1054</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.8861</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="69" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12"/>
       <c r="G27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" ht="41.4" spans="7:8">
+        <v>50</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" ht="69" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="12"/>
       <c r="G28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" ht="41.4" spans="7:8">
+        <v>52</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" ht="82.8" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="12"/>
       <c r="G29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="41.4" spans="7:8">
+        <v>54</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.8866</v>
+      </c>
+    </row>
+    <row r="30" ht="82.8" spans="7:8">
       <c r="G30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" ht="41.4" spans="7:7">
+      <c r="G31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="41.4" spans="7:7">
+      <c r="G32" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Digital Music</t>
   </si>
@@ -227,13 +227,10 @@
     <t>time+cnn （p_review=0.7 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
   </si>
   <si>
-    <t>phys</t>
-  </si>
-  <si>
-    <t>original（p_review=0.9 MAX_DF=0.6）</t>
-  </si>
-  <si>
-    <t>time+cnn （p_review=0.9 MAX_DF=0.6）</t>
+    <t>original（p_review=0.6 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.6 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1788,7 +1785,7 @@
       <c r="G29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="6">
         <v>0.8866</v>
       </c>
     </row>
@@ -1796,19 +1793,21 @@
       <c r="G30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="6">
+        <v>0.8864</v>
+      </c>
+    </row>
+    <row r="31" ht="82.8" spans="7:8">
+      <c r="G31" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" ht="41.4" spans="7:7">
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="82.8" spans="7:8">
+      <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" ht="41.4" spans="7:7">
-      <c r="G32" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/evaluation result.xlsx
+++ b/evaluation result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Digital Music</t>
   </si>
@@ -227,10 +227,13 @@
     <t>time+cnn （p_review=0.7 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
   </si>
   <si>
-    <t>original（p_review=0.6 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
-  </si>
-  <si>
-    <t>time+cnn （p_review=0.6 MAX_DF=0.6 MAXVOCAB=60000 removestopwords=True）</t>
+    <t>phys</t>
+  </si>
+  <si>
+    <t>original（p_review=0.9 MAX_DF=0.6）</t>
+  </si>
+  <si>
+    <t>time+cnn （p_review=0.9 MAX_DF=0.6）</t>
   </si>
 </sst>
 </file>
@@ -238,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -273,14 +276,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,67 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -371,6 +397,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -378,39 +405,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +434,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,19 +494,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,151 +566,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +643,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -655,11 +673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +699,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,36 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,7 +760,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,133 +769,133 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,34 +904,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1328,7 +1322,7 @@
       <c r="H3" s="2">
         <v>0.9015</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>0.9017</v>
       </c>
     </row>
@@ -1380,11 +1374,10 @@
       <c r="H5" s="4">
         <v>0.9375</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>0.9382</v>
       </c>
     </row>
@@ -1404,11 +1397,10 @@
       <c r="H6" s="4">
         <v>0.9752</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>0.9365</v>
       </c>
     </row>
@@ -1429,13 +1421,12 @@
       <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="69" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="G8" s="2" t="s">
         <v>21</v>
@@ -1446,13 +1437,13 @@
       <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="69" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>0.8779</v>
       </c>
       <c r="C9" s="5"/>
@@ -1465,21 +1456,21 @@
       <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="69" spans="3:11">
       <c r="C10" s="5"/>
       <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>0.9023</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="7:9">
       <c r="G11" s="2" t="s">
@@ -1503,7 +1494,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
-      <c r="B14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:17">
@@ -1578,10 +1569,10 @@
       <c r="M17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="11">
         <v>1.0676</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="11">
         <v>1.0673</v>
       </c>
     </row>
@@ -1609,14 +1600,14 @@
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>1.0926</v>
       </c>
       <c r="C19" s="3"/>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="1">
         <v>0.9057</v>
       </c>
       <c r="M19" s="2"/>
@@ -1625,7 +1616,7 @@
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>1.1058</v>
       </c>
       <c r="C20" s="5"/>
@@ -1644,7 +1635,7 @@
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>1.1051</v>
       </c>
       <c r="C21" s="5"/>
@@ -1670,7 +1661,7 @@
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>1.1017</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1679,10 +1670,10 @@
       <c r="M22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="11">
         <v>1.0684</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="11">
         <v>1.0681</v>
       </c>
     </row>
@@ -1690,7 +1681,7 @@
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>1.1052</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1702,10 +1693,10 @@
       <c r="M23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="11">
         <v>1.068</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="11">
         <v>1.068</v>
       </c>
     </row>
@@ -1713,7 +1704,7 @@
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>1.1048</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1730,13 +1721,13 @@
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>1.1054</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="1">
         <v>0.8862</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -1747,45 +1738,43 @@
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="1">
         <v>0.8861</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="69" spans="1:8">
+    <row r="27" s="1" customFormat="1" ht="69" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="9"/>
       <c r="G27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" ht="69" spans="1:8">
+    </row>
+    <row r="28" ht="69" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="G28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="6"/>
     </row>
     <row r="29" ht="82.8" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="G29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="10">
         <v>0.8866</v>
       </c>
     </row>
@@ -1793,21 +1782,19 @@
       <c r="G30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="6">
-        <v>0.8864</v>
-      </c>
-    </row>
-    <row r="31" ht="82.8" spans="7:8">
+      <c r="H30" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" ht="41.4" spans="7:7">
       <c r="G31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" ht="82.8" spans="7:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="41.4" spans="7:7">
       <c r="G32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
